--- a/837/837-testcase.xlsx
+++ b/837/837-testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TDC - Thu Duc College of Technology\TDC_HK5\35-cdptw1-1\837\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\module\837\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>VERSION</t>
   </si>
@@ -4587,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:S15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BA12" sqref="BA12:BH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -5509,13 +5509,9 @@
       <c r="BI13" s="10"/>
     </row>
     <row r="14" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="125">
-        <v>1</v>
-      </c>
+      <c r="A14" s="125"/>
       <c r="B14" s="126"/>
-      <c r="C14" s="129" t="s">
-        <v>55</v>
-      </c>
+      <c r="C14" s="129"/>
       <c r="D14" s="130"/>
       <c r="E14" s="130"/>
       <c r="F14" s="130"/>
